--- a/techniqo/data_new_ticker/AUBANK.xlsx
+++ b/techniqo/data_new_ticker/AUBANK.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G789"/>
+  <dimension ref="A1:G791"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A777" workbookViewId="0">
       <selection activeCell="H790" sqref="H790"/>
@@ -28006,6 +28006,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>701</v>
+      </c>
+      <c r="C790" t="n">
+        <v>708.55</v>
+      </c>
+      <c r="D790" t="n">
+        <v>677.5</v>
+      </c>
+      <c r="E790" t="n">
+        <v>700.1</v>
+      </c>
+      <c r="F790" t="n">
+        <v>500319</v>
+      </c>
+      <c r="G790" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>700</v>
+      </c>
+      <c r="C791" t="n">
+        <v>715</v>
+      </c>
+      <c r="D791" t="n">
+        <v>696</v>
+      </c>
+      <c r="E791" t="n">
+        <v>713.3</v>
+      </c>
+      <c r="F791" t="n">
+        <v>469789</v>
+      </c>
+      <c r="G791" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/AUBANK.xlsx
+++ b/techniqo/data_new_ticker/AUBANK.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G791"/>
+  <dimension ref="A1:G793"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A777" workbookViewId="0">
       <selection activeCell="H790" sqref="H790"/>
@@ -28056,6 +28056,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>705</v>
+      </c>
+      <c r="C792" t="n">
+        <v>709.4</v>
+      </c>
+      <c r="D792" t="n">
+        <v>695</v>
+      </c>
+      <c r="E792" t="n">
+        <v>704.9</v>
+      </c>
+      <c r="F792" t="n">
+        <v>154552</v>
+      </c>
+      <c r="G792" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B793" t="n">
+        <v>714.8</v>
+      </c>
+      <c r="C793" t="n">
+        <v>736.9</v>
+      </c>
+      <c r="D793" t="n">
+        <v>707.15</v>
+      </c>
+      <c r="E793" t="n">
+        <v>726.55</v>
+      </c>
+      <c r="F793" t="n">
+        <v>739071</v>
+      </c>
+      <c r="G793" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
